--- a/data/trans_bre/P20B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-20.74209380772314</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-6.348480953994285</v>
+        <v>-6.34848095399429</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.3005598035560637</v>
@@ -649,7 +649,7 @@
         <v>-0.4097678770080251</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1827043035450736</v>
+        <v>-0.1827043035450737</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-35.00773867157403</v>
+        <v>-36.98753899403868</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-26.82174388166908</v>
+        <v>-24.1069844476295</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-41.89939168950971</v>
+        <v>-43.04440423150631</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-25.08426365839024</v>
+        <v>-23.3455332108529</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6912280004800838</v>
+        <v>-0.7020173475836574</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5796282980317379</v>
+        <v>-0.5541318253490083</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6928493036210991</v>
+        <v>-0.6890535326774191</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5582953632217439</v>
+        <v>-0.548856429953777</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.4599596457411</v>
+        <v>13.22822136135055</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.280563106853771</v>
+        <v>9.516768232445354</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.1503280088890303</v>
+        <v>1.205022983249102</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.55294676948132</v>
+        <v>11.00879364059342</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.273841900002807</v>
+        <v>0.697242182053802</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5066058421555513</v>
+        <v>0.4627523899176272</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.002616477314572405</v>
+        <v>0.07661958597099912</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5020511147617175</v>
+        <v>0.5033208630215976</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-6.669453453405339</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-6.490118087338523</v>
+        <v>-6.490118087338506</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.3536887464793345</v>
@@ -749,7 +749,7 @@
         <v>-0.248355490320059</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2264746626160344</v>
+        <v>-0.2264746626160339</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-24.61288695735878</v>
+        <v>-23.42047502170755</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-14.17541616572805</v>
+        <v>-13.06503898480424</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-24.14568939069406</v>
+        <v>-23.59327285057746</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-22.42561964651289</v>
+        <v>-21.77527769648189</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7379893611200322</v>
+        <v>-0.7342096505988681</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4240703101463488</v>
+        <v>-0.3825219587557791</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6420751171728381</v>
+        <v>-0.6163301484206126</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5950457766392367</v>
+        <v>-0.6121327972243774</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.602582529129519</v>
+        <v>6.026787946886179</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>15.80577632153006</v>
+        <v>16.25913436135375</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.103348070791139</v>
+        <v>8.653359782158674</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.92537772872731</v>
+        <v>11.08466183065311</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6432525872121647</v>
+        <v>0.5672195392503062</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9616116268083794</v>
+        <v>0.9680469928637946</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6005450288268426</v>
+        <v>0.5972691093385815</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6437040680792177</v>
+        <v>0.6460132219901632</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-9.146426614709391</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-22.15603643846719</v>
+        <v>-22.1560364384672</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.29280810563396</v>
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-14.21238144709217</v>
+        <v>-12.9419751544112</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-31.38512550850355</v>
+        <v>-29.38552634635992</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-32.08355553549802</v>
+        <v>-31.80276100989301</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-40.9164265913389</v>
+        <v>-40.18279515085778</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4070018788947134</v>
+        <v>-0.37868230090115</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6556945605262906</v>
+        <v>-0.6475492655369572</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6638830408361094</v>
+        <v>-0.6660072707121668</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.7670219854860244</v>
+        <v>-0.7674030531422896</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>23.01108062887858</v>
+        <v>22.9904314112371</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.089758633111437</v>
+        <v>9.717375431443976</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.25282060999894</v>
+        <v>11.71620792592704</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-3.368166827670551</v>
+        <v>-1.789800721846555</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.865418927714359</v>
+        <v>1.867294176667163</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4143721174233773</v>
+        <v>0.4939860384338318</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.493067275704809</v>
+        <v>0.6625749930192962</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.09792511726049864</v>
+        <v>-0.06099139388036603</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-2.442333774949568</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-7.219965289510732</v>
+        <v>-7.219965289510738</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.4334378408457053</v>
@@ -949,7 +949,7 @@
         <v>-0.09022059547063316</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2280920807412226</v>
+        <v>-0.2280920807412228</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-29.91711735210369</v>
+        <v>-30.05992269108085</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-22.47310339605578</v>
+        <v>-21.91214511161807</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-17.80144161623813</v>
+        <v>-19.01920634024291</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-19.74243140481892</v>
+        <v>-21.86025100460299</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7209125351069243</v>
+        <v>-0.7120185373374072</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5911715612315254</v>
+        <v>-0.5816793580721789</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.492312547513268</v>
+        <v>-0.4955456754405128</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5187433984806532</v>
+        <v>-0.5226861436431943</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.04894343636208</v>
+        <v>2.915489843893271</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.955227348000209</v>
+        <v>8.404597182535378</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.14195737982028</v>
+        <v>12.75468692221441</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.219360080285261</v>
+        <v>4.881195889700575</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09215169799252293</v>
+        <v>0.1605067099714773</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4229276714572905</v>
+        <v>0.4941209587900951</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8775506857586287</v>
+        <v>0.7261962894257186</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2556758026058776</v>
+        <v>0.2127294170989578</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-9.341899917322493</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-9.903336207417951</v>
+        <v>-9.903336207417949</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.2305039587340064</v>
@@ -1049,7 +1049,7 @@
         <v>-0.2772256687575638</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.2979309431677498</v>
+        <v>-0.2979309431677497</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-14.10563370060653</v>
+        <v>-14.98989302698247</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-13.16720531295722</v>
+        <v>-13.79299014285175</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-18.46187650657059</v>
+        <v>-18.9195461323189</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-18.1637272824058</v>
+        <v>-18.16578293780952</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.45185792190783</v>
+        <v>-0.4764757488269451</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3656304029278389</v>
+        <v>-0.3923937067235273</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.466230473630996</v>
+        <v>-0.4774547229531264</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4789319161994582</v>
+        <v>-0.4745813054271327</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.870078310529214</v>
+        <v>2.429504340701693</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.880532189973595</v>
+        <v>2.870509142432666</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1692074933276928</v>
+        <v>-0.04823182913264846</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.523616532171527</v>
+        <v>-1.647884488402699</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1295097181006492</v>
+        <v>0.1282796839329437</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1214771994447532</v>
+        <v>0.1220810242970052</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.004880802274638946</v>
+        <v>0.003192302351711744</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.05338467538386377</v>
+        <v>-0.05995620141591611</v>
       </c>
     </row>
     <row r="19">
